--- a/topic_split/topic_3.xlsx
+++ b/topic_split/topic_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>issue</t>
   </si>
@@ -22,125 +22,346 @@
     <t>topic</t>
   </si>
   <si>
-    <t>confidence_score</t>
-  </si>
-  <si>
-    <t>[0.00592114 0.00577876 0.10093572 0.00569271 0.01008566 0.00850916
- 0.0104497  0.01089557 0.03301816 0.00805926 0.01309959 0.04735771
- 0.01618758 0.00704305 0.00957866 0.00884463 0.0077837  0.0085606
- 0.01039159 0.00946076 0.03114371 0.0092761  0.01452801 0.00827506
- 0.01967046]</t>
-  </si>
-  <si>
-    <t>[0.00644121 0.00637048 0.28939793 0.00631408 0.01090916 0.00942924
- 0.01174815 0.01245505 0.03672261 0.00856673 0.01441439 0.03740207
- 0.01899977 0.00780597 0.01086066 0.00932329 0.00853075 0.00966369
- 0.01100439 0.01010189 0.04093476 0.01003416 0.01720223 0.00889039
- 0.02020786]</t>
-  </si>
-  <si>
-    <t>[0.00537938 0.00507929 0.05032961 0.0049931  0.00979303 0.00821185
- 0.01027673 0.01110843 0.04216829 0.00701458 0.01305115 0.03808836
- 0.01640667 0.00623531 0.00945619 0.00772647 0.00729304 0.00825068
- 0.00930461 0.00839359 0.03987566 0.00856112 0.0150875  0.00728994
- 0.01734433]</t>
-  </si>
-  <si>
-    <t>[0.00538973 0.0051403  0.08983747 0.00509355 0.00936535 0.00815419
- 0.01028047 0.01114842 0.03517868 0.00708895 0.01289074 0.03000383
- 0.0174583  0.00635121 0.0095304  0.00775119 0.00728364 0.00836228
- 0.00931029 0.00848479 0.04936839 0.00857656 0.01607145 0.00741378
- 0.01750219]</t>
-  </si>
-  <si>
-    <t>[0.00496031 0.00473356 0.08958629 0.00467341 0.00887467 0.007465
- 0.00916776 0.00992911 0.03208942 0.00645636 0.01149962 0.03160558
- 0.01459509 0.00578786 0.00850944 0.00707895 0.00665393 0.0074845
- 0.00843935 0.00766053 0.0359725  0.0077693  0.01362122 0.00670161
- 0.01540354]</t>
-  </si>
-  <si>
-    <t>[0.00478684 0.00458131 0.04362017 0.00451141 0.00858569 0.00735244
- 0.00942324 0.01019848 0.0412113  0.00622346 0.0117859  0.02976531
- 0.01561634 0.00565523 0.00865513 0.00682613 0.00651406 0.00752789
- 0.0082477  0.00747675 0.04098318 0.00763673 0.01417549 0.00650261
- 0.01536214]</t>
-  </si>
-  <si>
-    <t>[0.00643131 0.00611909 0.19818715 0.00606623 0.01124314 0.0096162
- 0.0117585  0.01275022 0.03543734 0.00841563 0.01470555 0.03436945
- 0.0191805  0.00751383 0.01095375 0.00920471 0.00861146 0.00967086
- 0.01097318 0.00999184 0.0481425  0.01009191 0.01817427 0.00876254
- 0.01998551]</t>
-  </si>
-  <si>
-    <t>[1.98666913e-308 1.92200106e-308 1.00000000e+000 1.90301353e-308
- 3.45604923e-308 2.93021363e-308 3.56936152e-308 3.82879761e-308
- 1.08884503e-307 2.61074954e-308 4.43005431e-308 1.15188906e-307
- 5.66757111e-308 2.34724295e-308 3.31664725e-308 2.85243703e-308
- 2.63660162e-308 2.94327573e-308 3.37287401e-308 3.07768650e-308
- 1.27985772e-307 3.08641361e-308 5.29135509e-308 2.70528171e-308
- 6.09944175e-308]</t>
-  </si>
-  <si>
-    <t>[1.96412700e-308 1.91183698e-308 1.00000000e+000 1.89557384e-308
- 3.38627205e-308 2.87526014e-308 3.47765652e-308 3.72577511e-308
- 9.93110781e-308 2.57615047e-308 4.28362091e-308 1.05938623e-307
- 5.46221478e-308 2.32901103e-308 3.24015604e-308 2.80826876e-308
- 2.59258315e-308 2.88588669e-308 3.30391441e-308 3.02359108e-308
- 1.16916922e-307 3.02578423e-308 5.12564044e-308 2.66699750e-308
- 5.86607891e-308]</t>
-  </si>
-  <si>
-    <t>[0.00590388 0.00589539 0.07573368 0.00580484 0.00979194 0.00834173
- 0.01035688 0.01063021 0.03168375 0.00814398 0.0128086  0.04650077
- 0.01590588 0.00717929 0.0094379  0.00890771 0.00769382 0.00848343
- 0.0103902  0.00951313 0.0281379  0.00920707 0.0139984  0.0083405
- 0.0196661 ]</t>
-  </si>
-  <si>
-    <t>[1.96453923e-308 1.91139799e-308 1.00000000e+000 1.89195753e-308
- 3.40033669e-308 2.87282258e-308 3.48159007e-308 3.71571862e-308
- 1.03202803e-307 2.58955043e-308 4.30862391e-308 1.15075062e-307
- 5.45022394e-308 2.32775564e-308 3.23358868e-308 2.82797127e-308
- 2.59382613e-308 2.87911393e-308 3.32871671e-308 3.04045941e-308
- 1.16265566e-307 3.03651256e-308 5.07572511e-308 2.67645059e-308
- 5.97954433e-308]</t>
-  </si>
-  <si>
-    <t>[0.00776186 0.0074522  0.4689172  0.00738666 0.01360081 0.01155917
- 0.01405731 0.01522583 0.04221258 0.01010124 0.01743956 0.04163671
- 0.02252193 0.00911548 0.0131125  0.01103208 0.01034572 0.01159938
- 0.01308996 0.01193957 0.05392449 0.01206102 0.02134658 0.01049806
- 0.02343474]</t>
-  </si>
-  <si>
-    <t>[0.00549501 0.00532061 0.12571447 0.00524487 0.00954674 0.00798923
- 0.00971979 0.01025463 0.03071969 0.00736463 0.01219293 0.04082445
- 0.01503954 0.00647688 0.00895555 0.00808384 0.0072546  0.00797689
- 0.00952192 0.00865377 0.03063146 0.00857845 0.01375269 0.00757624
- 0.01765817]</t>
-  </si>
-  <si>
-    <t>[0.00516238 0.00497162 0.0877598  0.00489622 0.00912054 0.00768698
- 0.00957516 0.01018405 0.03619209 0.00685903 0.01206612 0.03996597
- 0.01534591 0.00609639 0.00878975 0.00753654 0.00691348 0.00775037
- 0.00899575 0.00815277 0.03565182 0.00817341 0.01391838 0.00710306
- 0.01705186]</t>
-  </si>
-  <si>
-    <t>[0.00553871 0.00521279 0.06323698 0.00512105 0.01000604 0.00816863
- 0.00978665 0.01043035 0.03162857 0.00733408 0.01249589 0.04535409
- 0.01478294 0.00632885 0.00903408 0.00810387 0.00736311 0.00799986
- 0.00959819 0.00864282 0.03037758 0.0086775  0.01377453 0.00753149
- 0.01763378]</t>
-  </si>
-  <si>
-    <t>[0.0044838  0.00412148 0.0365302  0.00403692 0.0082183  0.00660005
- 0.00781168 0.00829613 0.02411341 0.00599263 0.01017266 0.04112233
- 0.01159775 0.00500388 0.00718732 0.00667272 0.00597234 0.00636483
- 0.00793095 0.00707607 0.02269562 0.00709906 0.01088167 0.00612944
- 0.01475719]</t>
+    <t xml:space="preserve">Operational Learning: Staging UAT
+## Enhancements
+### High priority
+- [x] Home Page &gt; Excerpts - Secondary summaries &gt; Need to change "date of learning" to "date of operation" (the label and the data that is brought- we need to display the start date of the operation)
+- [x] Admin Page &gt; Ops Learning Summaries &gt; We should have access from the go admin page, to regenerate individual cached summaries.
+### Low priority 
+- [x] Home Page &gt; Filter titles &gt; Modify "Component" to "PER Component"
+- [x] Home Page &gt; Translations &gt; We still have a problem with the export translation (it appears as an "export map" in other languages)
+- [x] Home Page &gt; Default Primary Summary &gt; The excerpt ids appears in some summaries (e.g. the default one without filters). A solution could be to have post-processing steps, to identify when this happens, to regenerate the summary, until it is no longer the case.
+- [x] Home Page &gt; Prioritization of excerpts &gt; Summaries for large amount of data when prioritising recent operations focused only few or one operation . Methodology-wise, we are prioritizing excerpts according to date (after per component). That's why for example, if we filter for each year, we only get results for the last months (e.g., for 2021, we only get excerpts from Nov/Dec.)
+- [x] Home Page &gt; Source - Secondary summaries &gt; Sources do not appear sometimes, or not all used operations seem to appear linked. Not all sources of a secondary summary are displayed, even if one can see the sources in the excerpts pop up view. It might be because we don't have a good link to the final report, but we prefer to have the link to the emergency page, and the grayed link to the final report, rather than don't show the source at all.
+- [x] Home Page &gt; Filtering &gt; For the filter "components" the component 14, NS specific areas of intervention is displayed in its subcomponents, but the data is tagged at component level (just component 14), not subcoments (e.g Component 14b Health)
+- [x] #1506
+- [x] Home Page &gt; Primary Summaries &gt; In some filters, all primary summaries end with a open "("character
+- [x] Admin Page &gt; Ops Learning Excerpts &gt; modify search function in admin interface, to also filter by MDRcode
+## Bugs
+### Low priority
+- [ ] Home Page &gt; Secondary summaries &gt; After some queries (e.g. learnings in 2021), there are no secondary summaries neither for sectors, neither for components. But there are primary summaries, which means there are learnings (and each learning has at least a related component). I know, we are not displaying secondary summaries for learnings in the "ns-specific areas of intervention" component, but it seems the learnings displayed were related to other components.
+- [x] Home Page &gt; Introduction - Secondary summaries &gt; At the bottom of the primary summary there is the disclaimer of how many excerpts were prioritized out of how many available. However, then, we show the number of excerpts for the secondary summaries, without any context of whether that is the number of excerpts available, prioritized or cited.
+- [x] Home Page &gt; Source &gt; In some filters, just as "Uganda" when clicking the source for the primary summaries it crashes.
+- [x] Home Page &gt; Summaries &gt; For translation, the first time that a query is done, it displays the results in English, even if the translation seems to happen in the backend (because the next time the same query is done, then, the translation appears immediately)
+- [x] Home Page &gt; Disclaimer &gt; There is an error in "consistency"
+</t>
+  </si>
+  <si>
+    <t>Redirect not in place for Operational Learning changed navigation - and also no reference to it on the page
+### Page URL
+https://go.ifrc.org/preparedness#operational-learning
+### Environment
+Production
+### Browser
+Chrome (not that it's relevant)
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+The link to Operational Learning that has been disseminated in a lot of the guidance (e.g. the NS Response Capacity Strengthening job aid, the Red Cross CEA guide, the IFRC IM Strategy 2021024, the BHA grant documentation, and a huge number of other docs and presentations etc.) is https://go.ifrc.org/preparedness#operational-learning
+However since the changed GO site navigation, this link does not work any more.  It simply redirects people to the Preparedness page https://go.ifrc.org/preparedness/global-summary which does not mention Operational Learning anywhere.
+### Expected Behavior
+I expected to be directed to the Operational Learning information (now at https://go.ifrc.org/operational-learning but formerly at the link above)
+### Actual Behavior
+I got navigated to a completely unrelated page with no mention of Operational Learning
+### Priority
+High (Major functionality is broken)
+### Additional Context (Optional)
+I put this as high priority, as we need to always make sure that links work reliably if we want people to be able to trust GO.  In the particular case of this link, if we want Operational Learning to be adopted then we need to ensure that people who click on a link they've been sent have some way of accessing the information they're looking for.
+For this particular example, please can we either
+1. ensure that the URL that has been published takes people directly to the Operational Learning page, or
+2. change the Preparedness page content so that it mentions Operational Learning somewhere, and links people to the new location
+Thanks a lot</t>
+  </si>
+  <si>
+    <t>Search doesn't return the operation I'm looking for
+### Page URL
+https://go.ifrc.org/search?keyword=covid
+### Environment
+Production
+### Browser
+Chrome
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+I went to the search box and input "covid", looking for the global covid appeal/response page.  The dropdown as you type was just filled with 3Ws not with emergency operations.  Then when I clicked enter to get the full search results I had lots of different emergency pages - I think 50 of them - mostly with no associated appeal/dref, just one with a small dref - but none of the results were the CHF670M global appeal that I was looking for.  Is there perhaps a 50 item limit on emergencies in search???
+### Expected Behavior
+I wanted to see the _Global: COVID-19 pandemic_ emergency page in the results (i.e. https://go.ifrc.org/emergencies/3972/details)
+### Actual Behavior
+The _Global: COVID-19 pandemic_ was not listed.  I had to go hunting for it manually.  The only reason I found it was because I happen to know that it was associated with Switzerland as a location - but that is not common knowledge.
+Need to be able to find the emergency pages I am looking for.
+Suggest prioritising pages with content/more recent updates, and perhaps also prioritising $$ of appeal in the search.  Especially with epidemics but also with other recurring disasters (typhoons, earthquakes etc.) it is important to be able to find the things we are looking for.
+### Priority
+None
+### Additional Context (Optional)
+There are a number of issues with search that I want to report, but as https://github.com/IFRCGo/go-web-app/issues/1582 remains open there is no ability to report search issues that way.  Hence logging this ticket separately!
+Thanks a million.</t>
+  </si>
+  <si>
+    <t>Can't easily differentiate between which appeal document is which type
+### Page URL
+https://go.ifrc.org/emergencies/7196/reports
+### Environment
+Production
+### Browser
+Chrome
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+If I go to the Appeal Documents for a given emergency, there is a list of documents but it's not easy to tell which one is the Emergency Appeal document itself, vs which document is the Operational Strategy or the Ops Update.
+There are codes displayed - e.g. MDRPH056rea - but not a description
+![Image](https://github.com/user-attachments/assets/1760bcc6-4334-4f5a-a446-154b8776105e)
+### Expected Behavior
+In the old days there used to be a description shown that clearly described what the document related to - e.g. here's a screenshot from the covid page - where it has the appeal code, the description (being a clear description of what type of document it is), and the filename of the document isn't visible :
+![Image](https://github.com/user-attachments/assets/0a3767e4-a128-4372-ad13-b17a8dd45329)
+And another screenshot from the Pakistan Monsoon Floods page - where again it's easy for a user to see what each document is:
+![Image](https://github.com/user-attachments/assets/5bf6229e-8a56-42d1-88f1-d005cf536179)
+As a user I would like to see a clear description of the document so I know what it is I am opening.  Me being me I happen to know that OS = Operational Strategy, REA = Revised Emergency Appeal etc. - but people who aren't PMER/IM/Ops generally do not know these secret codes even if they know what the documents themselves are.
+### Actual Behavior
+In more recent emergencies it's just the document's code that is shown onscreen (e.g. MDRPH056_EA or MDRPH056ROS) rather than the description of what the document actually is.
+Note that ifrc.org/appeals _does_ have the info, it's just not being pulled onto GO:
+https://www.ifrc.org/appeals?appeal_code=MDRPH056
+![Image](https://github.com/user-attachments/assets/79650781-ab73-4989-b9a1-64aba17c7233)
+I realise there have been a bunch of changes to how appeal docs work, but if we could please make the further tweak to ensure the info shown in "Appeal type" column shows on GO that would be great.  We can _also_ keep the info/code from the "Orig. type" but that's not enough in isolation.
+Thanks a lot
+### Priority
+None
+### Additional Context (Optional)
+xref prior work on appeal docs:  https://github.com/IFRCGo/go-api/issues/1754 https://github.com/IFRCGo/go-api/issues/1824 https://github.com/IFRCGo/go-api/issues/2007
+xref https://github.com/IFRCGo/go-web-app/issues/1282 re ordering (different issue, but also about usability of appeal docs)</t>
+  </si>
+  <si>
+    <t>[PROD] stale data about IFRC presence on country page
+### Page URL
+https://go.ifrc.org/countries/136/ns-overview/partners
+### Environment
+Production
+### Browser
+Chrome
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+As a surge person about to deploy, I went to the GO country page to get more information about the location I was shortly to deploy to.
+I went to the National Society Overview/Partners page and in the IFRC Presence page it says:
+Head of Country Delegation:  Alberto Bocanegra
+However Alberto hasn't been head of delegation in Philippines since 2023 (i.e. more than a year ago)
+![Image](https://github.com/user-attachments/assets/6d717c16-5594-46b5-b531-c7257d86cb53)
+### Expected Behavior
+I expected to see data that was current - or at least only a month or two out of date!
+The IFRC website has the correct info - so even if there's not an automatic feed anywhere then someone can manually get it from ifrc.org regularly - or via the emails that come out from the IFRC Secretary General when new HoDs are appointed:
+https://www.ifrc.org/national-societies-directory/Asia%20Pacific
+![Image](https://github.com/user-attachments/assets/446fc31e-51a3-4ae7-a165-87bc9901ed80)
+### Actual Behavior
+I saw stale data.  Sanjeev Kumar Kafley is showing against Bangladesh when he moved to be HoD of Philippines in 2023.
+Alberto Bocanegra is now HoD for Bangladesh.
+Same for a bunch of other delegations/people - John Entwistle showing as HoD Russia/Belarus but he's now HoD for India cluster since a couple of months.
+Emilie Goller showing as Romania when she's HoD Egypt now.
+Atta Muhammad Murtaza Durrani showing in Iran when since mid 2024 the HoD for Iran has been Faisal Mahboob
+etc.
+### Priority
+High (Major functionality is broken)
+### Additional Context (Optional)
+We need to either
+1. make sure the data is kept up to date so that GO can be trusted,
+OR
+2. stop showing this field on GO and simply link people back to the relevant ifrc.org regional page instead (e.g. https://www.ifrc.org/national-societies-directory/MENA or https://www.ifrc.org/national-societies-directory/Asia%20Pacific etc. )
+Thanks</t>
+  </si>
+  <si>
+    <t>User can't see/edit own position on front end
+### Page URL
+https://go.ifrc.org/account/details
+### Environment
+Production
+### Browser
+x
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+[low priority!]
+Went to edit the uFirst and Last names of my surge GO user (as had the prior person's name attached).
+Can't see the "position" on the front end edit User Profile modal, so can't edit it.  Even though position is a valid field in the back end, and is shown on the view user screen
+![Image](https://github.com/user-attachments/assets/b60dbb62-2693-4787-8bd2-ff1a6cce44bc)
+### Expected Behavior
+show position
+### Actual Behavior
+no position field
+### Priority
+Low (Minor inconvenience)
+### Additional Context (Optional)
+Position doesn't really do anything functionally - but if it's meant to be there we should add it.  Cheers</t>
+  </si>
+  <si>
+    <t>Active operations section on country page doesn't show data even when there is a current Active operation
+### Page URL
+https://go.ifrc.org/countries/136/ongoing-activities/emergencies
+### Environment
+Production
+### Browser
+x
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+I wanted to find the information about recent emergencies in Philippines (they had 6 typhoons come through within the last couple of months of 2024, I am deployed as surge).
+I navigated to the Philippines page https://go.ifrc.org/countries/136/ongoing-activities/emergencies
+The key figs at the top show that there is 1 active Emergency Appeal.
+The map at the bottom (headed "Active Operations Map" shows that there are 3 active operations - and below the map is a list of them.
+However the main data section at the top of the page (under the key figures - the section with the heading "Active Operations" and the right hand side link "View all emergencies in this country") says **Data is not available.**
+This "no data available" is the first thing other than key figs that you see.
+This is unexpected, as right now there is a [very large emergency operation that is still in the early months](https://go.ifrc.org/emergencies/7196/reports) (still in the surge period) so should definitely be shown.  There are also other operations ongoing with this NS that aren't mapped to the Emergency Appeal.
+![Image](https://github.com/user-attachments/assets/bf08c38b-8534-41e0-875d-97d16520d2e3)
+I have looked in dev tools and can see that the date is restricted to disasters starting in the last month - why is it only a month?
+https://goadmin.ifrc.org/api/v2/event/?countries__in=136&amp;disaster_start_date__gte=2025-01-05T16%3A00%3A00.000Z&amp;ordering=-disaster_start_date
+### Expected Behavior
+I expected to see the responses that are currently ongoing
+### Actual Behavior
+I did not see any responses listed in the top section (the first bit you see onscreen)
+The label does not match the real life situation.
+I think the intention is to show _recent_ responses rather than _active_ responses - and at the moment responses that are &lt;3 months old AND active aren't showing (and they should show under either criterion!)
+Suggest making this timeframe at least 6 months rather than 1 month - or possibly just go for top 10 most recent. Need to definitely get past the 4 month surge period at least (if not till the end of the operation, which is generally up to 1 year).
+The point of GO is to highlight the Red Cross Red Crescent response, so it seems a shame to filter out all the good work that is going on.
+Thanks
+### Priority
+None
+### Additional Context (Optional)
+_No response_</t>
+  </si>
+  <si>
+    <t>usability tweak - Browser tab names - ideally show name of operation
+### Feature Description
+Currently when I have GO Platform open to different operations on different tabs I can't tell which is which, as the 'name' for all Emergency pages is `IFRC GO - Emergency` as power sceenshot (I have 5 different emergency pages open)
+Ideally the name would be `IFRC GO - Emergency - [name of emergency]`
+e.g. in the below screenshot the browser tab should show `IFRC GO - Emergency - Ukraine and impacted countries crisis`
+(or alternatively could just leave out the world 'Emergency')
+![Image](https://github.com/user-attachments/assets/666746f1-ac8a-4eeb-980e-bf8b46ad8b39)
+Similarly if I hit the button to bookmark a page in my browser I then have to manually edit the bookmark so I know which emergency it relates to.
+Apart from ease of use in browsers, the other good thing is that when people copy and paste the link into other systems (e.g. Microsoft Word, when publishing Ops Updates -or Outlook when emailing) then the full emergency name will automatically appear as the hyperlink wording.  Currently if I copy and paste the URLs for several emergencies I then have to manually edit the hyperlink text so people can tell the difference between my links
+### Additional Context
+This is not critical but is another one of those small tweaks our side that would be very helpful to de-frictionize GO adoption by users.
+It's not just me - I've noticed others (e.g. PMER) have the copy/paste URL friction - so be great to switch it up!
+Ideally same for regional pages (having the region in the tab name instead of just `IFRC GO - Region`
+Country pages already have the country in the browser tab name so that is fab.
+Thanks</t>
+  </si>
+  <si>
+    <t>Redirect not in place for Field Reports changed navigation and COVID sankey 404
+### Page URL
+https://go.ifrc.org/reports/all
+### Environment
+Production
+### Steps to Reproduce the Issue
+I was looking at the World Disasters Report 2022 - https://www.ifrc.org/document/world-disasters-report-2022 - as it's required reading for a university short course I'm doing just now - and the World Disaster Report references IFRC GO a number of times.
+In particular, the report has several references to the global COVID-19 page https://go.ifrc.org/emergencies/3972 - so I've been looking at that page again for the first time in a while.
+There are several broken internal links from that main COVID page - presumably due to the site redesign?  Or perhaps another reason.  
+1. on front screen of that emergency it says "Please see also [field reports](https://go.ifrc.org/reports/all)" - but that link to /reports/all gives me a 404
+2. on actions tab of that emergency it has an embedded link to https://go.ifrc.org/covid19-3w-sankey which is also returning a 404
+![Image](https://github.com/user-attachments/assets/f0a9058e-0256-46c2-8beb-d7a40e582e62)
+May you please kindly make sure that these links both go to the place they were intended?  Thanks a million.
+xref https://github.com/IFRCGo/go-web-app/issues/1628
+### Expected Behavior
+Load properly with no 404s
+### Actual Behavior
+https://go.ifrc.org/reports/all gives me a 404
+https://go.ifrc.org/covid19-3w-sankey gives me a 404
+### Priority
+Medium (Affects functionality, but there is a workaround)
+### Additional Context (Optional)
+I put priority as Medium (affects functionality, but there is a workaround) however actually there is no workaround that I can find.  High felt too high though!
+Need to make sure that all previously-published or previously-shared links to GO pages go to the right content rather than 404s.
+Thanks!</t>
+  </si>
+  <si>
+    <t>can't easily find Flash Updates
+### Page URL
+https://go.ifrc.org/search?keyword=shear
+### Environment
+Production
+### Browser
+x
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+Two flash updates have been issued from the Philippines in the last few days.  Each time I was told by a colleague via a manual email (nothing to do with GO) so I went to GO to look for the information.
+I am logged in as an IFRC User (country admin for Philippines)
+If I go to the Country Page for Philippines there is no mention of the Flash Updates
+If I use the search then neither of the flash updates are returned in the search.
+e.g. https://go.ifrc.org/search?keyword=shear
+returns
+- 5 Projects from various countries from various years, none of which have the word Shear anywhere in the title
+- 5 Reports, two of which have the word Shear in the title but three of which don't - all from at least a year ago if not more
+- 5 emergencies, two of which have the word Shear in the title but three don't
+No Flash updates are returned in search - where I was expecting to see https://go.ifrc.org/flash-updates/363 (... Effects of Shear Line...)
+e.g. (2) https://go.ifrc.org/search?keyword=dengue
+returns
+- 1 province from Cote d'Ivoire
+- 5 Field Reports and 5 emergencies (all of which are correctly mentioning Dengue)
+- 5 Projects - all for emergencies that have Dengue in the name which is good (the projects themselves don't have Dengue in the title)
+- 5 open surge alerts (all for Dengue)
+Ideally I could search for "Dengue Philippines" and find https://go.ifrc.org/flash-updates/364 (Dengue Outbreak in Quezon City, Philippines)
+The only way I can find that i can get to Flash Updates without having been provided with a direct link is to go to the menu Respond/Emergencies/Ongoing Emergencies, click on that link then scroll down the page to the Flash Updates section
+### Expected Behavior
+I expected to be able to easily find the Flash Updates, from either the Country page or from Search (when logged in as an IFRC user with admin privileges for that country)
+### Actual Behavior
+I had to either be given the direct link or navigate via the https://go.ifrc.org/emergencies page
+### Priority
+Low (Minor inconvenience)
+### Additional Context (Optional)
+xref https://github.com/IFRCGo/go-web-app/issues/1582 re inability to report Search issues via the form.
+Thanks!</t>
+  </si>
+  <si>
+    <t>Access denied shows onscreen before the Flash Update page loads properly
+### Page URL
+https://go.ifrc.org/flash-updates/364
+### Environment
+Production
+### Browser
+Chrome
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+1. Be logged in as a user that has permission to view Flash Updates
+2. navigate to a particular Flash Update page (either from the link on the [Emergencies page](https://go.ifrc.org/emergencies), or by directly pasting the URL such as https://go.ifrc.org/flash-updates/363
+### Expected Behavior
+I expected the Flash Update page to load fine
+### Actual Behavior
+When the page first started loading I saw a 403 permission denied screen, only after that did the page load correctly.
+I've tried several times - sometimes the 403 appears only for a tiny fraction of a second, sometimes it appears for longer - but in either case it's an awkward user experience that we need to fix to ensure users don't think something is wrong with the platform!
+![Image](https://github.com/user-attachments/assets/5be4f2fe-9056-472f-8e41-21cddde62c9b)
+See also [files in my OneDrive (visible to all IFRC)](https://ifrcorg-my.sharepoint.com/:f:/g/personal/imco_philippines_ifrc_org/Ek5lbAQBuJhOgcye9eIbPPsBUNa6miw-nkWVV_rotoavBg?e=2atwW7):
+- video of my screen just now
+- HAR file so you can see the timing of the API calls from the browser
+Thanks
+### Priority
+Low (Minor inconvenience)
+### Additional Context (Optional)
+The page does load correctly, it's just the intermediate phase while loading that the error shows.  The error shows onscreen for longer the slower the internet/longer the latency.</t>
+  </si>
+  <si>
+    <t>Redirect not in place for changed navigation - GO About page returns 404 error
+### Page URL
+https://go.ifrc.org/about
+### Environment
+Production
+### Browser
+x
+### Operating System
+_No response_
+### Steps to Reproduce the Issue
+I was looking through some past GO platform workshop/reference materials, they directed people to https://go.ifrc.org/about as follows:
+&gt; For those new to the GO platform, the user guide along with the video tutorials is available here: https://go.ifrc.org/about.
+However that link gives me a 404.  I thought the redirects to new navigation were mostly in place for normal pages (just not the multi-hop redirects like https://github.com/IFRCGo/go-web-app/issues/1628 however this one is a key redirect that seems to not be working.  Was it always not working since the nav changes?
+### Expected Behavior
+I expected the GO/about page to take me to a page where it tells me all about GO platform and how to use it
+Presumably https://go.ifrc.org/resources (which is now buried deep in the nav)
+### Actual Behavior
+I got a 404
+![Image](https://github.com/user-attachments/assets/7b5c315b-71c8-4eac-bd5a-82d710665a2d)
+### Priority
+Medium (Affects functionality, but there is a workaround)
+### Additional Context (Optional)
+xref other missing redirect tickets e.g. https://github.com/IFRCGo/go-web-app/issues/1628 https://github.com/IFRCGo/go-web-app/issues/1666 https://github.com/IFRCGo/go-web-app/issues/730 https://github.com/IFRCGo/go-web-app/issues/1637 etc
+- What can we do to ensure all previously-published URLs go to a good page rather than 404s?
+- Is there any monitoring on which URLs people get 404s for?</t>
   </si>
 </sst>
 </file>
@@ -498,197 +719,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>47</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>52</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>53</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>80</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
-        <v>83</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
-        <v>104</v>
-      </c>
       <c r="B13">
         <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
-        <v>119</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
-        <v>164</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
-        <v>165</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
